--- a/Solution/4. WeFit.xlsx
+++ b/Solution/4. WeFit.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internshala course\Projects\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatin\Documents\GitHub\Fitness-Data-Analysis-Using-Excel\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC3A82-B6E9-4063-B421-1770FED1D205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF929EA7-CBEC-47BA-802C-97D800DA4E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main(ID)1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Main(ID)" sheetId="5" r:id="rId2"/>
+    <sheet name="Dashboard(ID)" sheetId="5" r:id="rId2"/>
     <sheet name="Main(DATE)1" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Main(Date)" sheetId="6" r:id="rId4"/>
+    <sheet name="Dashboard(Date)" sheetId="6" r:id="rId4"/>
     <sheet name="dailyActivity_merged" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -291,18 +291,12 @@
   <si>
     <t>PRO</t>
   </si>
-  <si>
-    <t>How I solved the Task</t>
-  </si>
-  <si>
-    <t>First, I imported the Daily Activity data using Power Query and cleaned it by removing some columns. Next, I created two pivot tables for IDs and dates to get the details mentioned in the case study. Then, I used Forumla (=IFS(B2&gt;20,"ACTIVE",B2&gt;10,"MODERATE",TRUE,"LIGHT") to group IDs or dates according to the given criteria. I also grouped IDs and dates for mean distance by using a formula =IFS(C2&gt;10,"PRO",C2&gt;5,"INTERMEDIATE",TRUE,"BEGINEER"). After this, I hided the both sheets and created two Worksheets first for IDs and second for Date data, and copied the values to specific sheets and created charts for visualisation.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,21 +312,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,42 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -399,29 +350,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +614,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Main(ID)'!$A$2:$A$34</c:f>
+              <c:f>'Dashboard(ID)'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -780,7 +722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(ID)'!$B$2:$B$34</c:f>
+              <c:f>'Dashboard(ID)'!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1205,7 +1147,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Main(Date)'!$A$2:$A$32</c:f>
+              <c:f>'Dashboard(Date)'!$A$2:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
@@ -1306,7 +1248,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(Date)'!$D$2:$D$32</c:f>
+              <c:f>'Dashboard(Date)'!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1686,7 +1628,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Main(Date)'!$E$1</c:f>
+              <c:f>'Dashboard(Date)'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1736,7 +1678,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Main(Date)'!$A$2:$A$32</c:f>
+              <c:f>'Dashboard(Date)'!$A$2:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
@@ -1837,7 +1779,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(Date)'!$E$2:$E$32</c:f>
+              <c:f>'Dashboard(Date)'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2216,7 +2158,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Main(Date)'!$F$1</c:f>
+              <c:f>'Dashboard(Date)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2245,7 +2187,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Main(Date)'!$A$2:$A$32</c:f>
+              <c:f>'Dashboard(Date)'!$A$2:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
@@ -2346,7 +2288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(Date)'!$F$2:$F$32</c:f>
+              <c:f>'Dashboard(Date)'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2458,7 +2400,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Main(Date)'!$G$1</c:f>
+              <c:f>'Dashboard(Date)'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2487,7 +2429,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Main(Date)'!$A$2:$A$32</c:f>
+              <c:f>'Dashboard(Date)'!$A$2:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
@@ -2588,7 +2530,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(Date)'!$G$2:$G$32</c:f>
+              <c:f>'Dashboard(Date)'!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2700,7 +2642,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Main(Date)'!$H$1</c:f>
+              <c:f>'Dashboard(Date)'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2729,7 +2671,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Main(Date)'!$A$2:$A$32</c:f>
+              <c:f>'Dashboard(Date)'!$A$2:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
@@ -2830,7 +2772,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(Date)'!$H$2:$H$32</c:f>
+              <c:f>'Dashboard(Date)'!$H$2:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4265,7 +4207,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Main(ID)'!$A$2:$A$34</c:f>
+              <c:f>'Dashboard(ID)'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -4373,7 +4315,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(ID)'!$C$2:$C$34</c:f>
+              <c:f>'Dashboard(ID)'!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -4759,7 +4701,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Main(ID)'!$D$1</c:f>
+              <c:f>'Dashboard(ID)'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4809,7 +4751,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Main(ID)'!$A$2:$A$34</c:f>
+              <c:f>'Dashboard(ID)'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -4917,7 +4859,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(ID)'!$D$2:$D$34</c:f>
+              <c:f>'Dashboard(ID)'!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -5344,7 +5286,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Main(ID)'!$A$2:$A$34</c:f>
+              <c:f>'Dashboard(ID)'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -5452,7 +5394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(ID)'!$E$2:$E$34</c:f>
+              <c:f>'Dashboard(ID)'!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -5842,7 +5784,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Main(ID)'!$F$1</c:f>
+              <c:f>'Dashboard(ID)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5871,7 +5813,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Main(ID)'!$A$2:$A$34</c:f>
+              <c:f>'Dashboard(ID)'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -5979,7 +5921,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(ID)'!$F$2:$F$34</c:f>
+              <c:f>'Dashboard(ID)'!$F$2:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -6097,7 +6039,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Main(ID)'!$G$1</c:f>
+              <c:f>'Dashboard(ID)'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6126,7 +6068,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Main(ID)'!$A$2:$A$34</c:f>
+              <c:f>'Dashboard(ID)'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -6234,7 +6176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(ID)'!$G$2:$G$34</c:f>
+              <c:f>'Dashboard(ID)'!$G$2:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -6352,7 +6294,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Main(ID)'!$H$1</c:f>
+              <c:f>'Dashboard(ID)'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6381,7 +6323,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Main(ID)'!$A$2:$A$34</c:f>
+              <c:f>'Dashboard(ID)'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -6489,7 +6431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(ID)'!$H$2:$H$34</c:f>
+              <c:f>'Dashboard(ID)'!$H$2:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -8131,7 +8073,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Main(Date)'!$A$2:$A$32</c:f>
+              <c:f>'Dashboard(Date)'!$A$2:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
@@ -8232,7 +8174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(Date)'!$B$2:$B$32</c:f>
+              <c:f>'Dashboard(Date)'!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -8656,7 +8598,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Main(Date)'!$A$2:$A$32</c:f>
+              <c:f>'Dashboard(Date)'!$A$2:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
@@ -8757,7 +8699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main(Date)'!$C$2:$C$32</c:f>
+              <c:f>'Dashboard(Date)'!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -33177,7 +33119,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65571462-97C5-4AB1-A377-C9E0411EE4B1}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65571462-97C5-4AB1-A377-C9E0411EE4B1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:H35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -33391,7 +33333,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7C53B2F-5F0F-48F4-977F-040E726212AB}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Activity Date">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7C53B2F-5F0F-48F4-977F-040E726212AB}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Activity Date">
   <location ref="A1:H33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField dataField="1" showAll="0"/>
@@ -35169,7 +35111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346A14F-299F-49A6-AFFF-FD201435B96B}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -37426,10 +37368,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E0DD8-1814-4017-AE72-A20565E6C04C}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:S13"/>
+    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37449,7 +37391,7 @@
     <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -37481,7 +37423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -37512,18 +37454,8 @@
       <c r="J2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -37554,18 +37486,8 @@
       <c r="J3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -37596,16 +37518,8 @@
       <c r="J4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -37636,16 +37550,8 @@
       <c r="J5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -37676,16 +37582,8 @@
       <c r="J6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -37716,16 +37614,8 @@
       <c r="J7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -37756,16 +37646,8 @@
       <c r="J8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
@@ -37796,16 +37678,8 @@
       <c r="J9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -37836,16 +37710,8 @@
       <c r="J10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -37876,16 +37742,8 @@
       <c r="J11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -37916,16 +37774,8 @@
       <c r="J12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -37956,16 +37806,8 @@
       <c r="J13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -37997,7 +37839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -38029,7 +37871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -38574,10 +38416,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="L3:S13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
